--- a/xlsx/美国网络审查_intext.xlsx
+++ b/xlsx/美国网络审查_intext.xlsx
@@ -29,7 +29,7 @@
     <t>互联网</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国网络审查</t>
+    <t>政策_政策_美国_美国网络审查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95%E7%AC%AC%E4%B8%80%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>社交網站</t>
+    <t>社交网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E5%AE%A1%E6%9F%A5</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%92%E7%AB%A5%E8%89%B2%E6%83%85</t>
   </si>
   <si>
-    <t>兒童色情</t>
+    <t>儿童色情</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E6%9C%8D%E5%8A%A1%E4%BE%9B%E5%BA%94%E5%95%86</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%9C%E7%81%A3</t>
   </si>
   <si>
-    <t>海盜灣</t>
+    <t>海盗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Megaupload</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%95%E6%86%B2</t>
   </si>
   <si>
-    <t>違憲</t>
+    <t>违宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%97%E5%8D%83%E5%B9%B4%E7%89%88%E6%9D%83%E6%B3%95%E6%A1%88</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美國法典</t>
+    <t>美国法典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Title_17_of_the_United_States_Code</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E7%8A%AF%E7%89%88%E6%AC%8A</t>
   </si>
   <si>
-    <t>侵犯版權</t>
+    <t>侵犯版权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%BF%E7%AB%A5%E5%9C%A8%E7%BA%BF%E9%9A%90%E7%A7%81%E4%BF%9D%E6%8A%A4%E6%B3%95%E6%A1%88</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%95%B7</t>
   </si>
   <si>
-    <t>家長</t>
+    <t>家长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%91%E6%8A%A4%E4%BA%BA</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AA%94%E6%A1%88%E5%88%86%E4%BA%AB</t>
   </si>
   <si>
-    <t>檔案分享</t>
+    <t>档案分享</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%93%BE%E6%8E%A5</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E6%AA%A2%E5%AF%9F%E9%95%B7</t>
   </si>
   <si>
-    <t>美國總檢察長</t>
+    <t>美国总检察长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A6%AC%E7%88%BE%C2%B7S%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>拉馬爾·S·史密斯</t>
+    <t>拉马尔·S·史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E6%87%B7%E7%99%BB</t>
   </si>
   <si>
-    <t>榮·懷登</t>
+    <t>荣·怀登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83%E6%B3%95%E6%A1%88</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BE%E5%B1%88%E5%85%8B%C2%B7%E8%90%8A%E5%B8%8C</t>
   </si>
   <si>
-    <t>派屈克·萊希</t>
+    <t>派屈克·莱希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7%E7%91%9E%E5%BE%B7</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E8%BB%9F%E9%AB%94%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>商業軟體聯盟</t>
+    <t>商业软体联盟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CTIA_-_The_Wireless_Association</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E8%9F%AC%E6%95%88%E6%87%89_(%E6%B3%95%E5%BE%8B)</t>
   </si>
   <si>
-    <t>寒蟬效應 (法律)</t>
+    <t>寒蝉效应 (法律)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%87%E6%81%A8%E8%A8%80%E8%AB%96</t>
   </si>
   <si>
-    <t>仇恨言論</t>
+    <t>仇恨言论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%97%B6%E8%81%8A%E5%A4%A9</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E4%BA%8B%E9%81%94</t>
   </si>
   <si>
-    <t>萬事達</t>
+    <t>万事达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Visa</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>社交網絡</t>
+    <t>社交网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Religious_Broadcasters</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>反墮胎</t>
+    <t>反堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%BB%9F</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%A8%B4</t>
   </si>
   <si>
-    <t>上訴</t>
+    <t>上诉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/prior_restraint</t>
@@ -1211,13 +1211,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%A5%A7%E5%BE%B7%E6%87%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>理查德·奧德懷爾</t>
+    <t>理查德·奥德怀尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%C2%B7%E9%81%94%E5%BA%B7</t>
   </si>
   <si>
-    <t>金·達康</t>
+    <t>金·达康</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91</t>
@@ -1235,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80%E6%8D%B7%E9%81%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>舊金山灣區捷運系統</t>
+    <t>旧金山湾区捷运系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/BART_Police</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%A1%8C%E7%A4%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>遊行示威</t>
+    <t>游行示威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E7%94%B5%E8%AF%9D</t>
@@ -1289,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%80%9A%E8%A8%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯邦通訊委員會</t>
+    <t>联邦通讯委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%AE%E6%8D%95</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ars_Technica</t>
